--- a/Project_Design/박시원/01. Dialogue data table.xlsx
+++ b/Project_Design/박시원/01. Dialogue data table.xlsx
@@ -93,7 +93,7 @@
 많은 이들의 삶과 생명을 앗아갔다.</t>
   </si>
   <si>
-    <t>각국의 군대, 연합군은 괴멸했고 레지스탕스들이 저항을 계속 이어갔다.</t>
+    <t>각국의 군대, 연합군은 패배했고 레지스탕스들이 저항을 계속 이어갔다.</t>
   </si>
   <si>
     <t>공중도시 ‘멘 네페르’.</t>

--- a/Project_Design/박시원/01. Dialogue data table.xlsx
+++ b/Project_Design/박시원/01. Dialogue data table.xlsx
@@ -38,24 +38,23 @@
     <t>Scheduled for deletion</t>
   </si>
   <si>
-    <t>~배틀 위치스, 출격 합니다~</t>
+    <t>~배틀 위치스, 출격합니다~</t>
   </si>
   <si>
     <t>소제목</t>
   </si>
   <si>
-    <t xml:space="preserve">옛 도시들은 공중도시 아래, 땅위에 지어졌다.
-</t>
+    <t>옛 도시들은 공중도시 아래, 땅 위에 지어졌다.</t>
   </si>
   <si>
-    <t>계속된 개발은 인류를 더이상 땅위에서 살아갈 수 없게 하였고,</t>
+    <t>계속된 개발은 인류를 더 이상 땅 위에서 살아갈 수 없게 하였고,</t>
   </si>
   <si>
     <t>인류는 높은 탑과 공중 도시를 만들어 하늘에서 살아가게 되었다.</t>
   </si>
   <si>
     <t>파워드 슈트와 이카로스 기어, 여러 비행 장비들을 통해
-인류는 하늘에서의 삶에 적응 하고 정복하는 듯 싶었다.</t>
+인류는 하늘에서의 삶에 적응하고 정복하는 듯싶었다.</t>
   </si>
   <si>
     <t>그 일이 있기 전까지는.</t>
@@ -73,7 +72,7 @@
     <t>하늘로 도망친 ‘패배자’일 뿐, 창조주를 정복하지 못했습니다.</t>
   </si>
   <si>
-    <t>바로 인류의 본능은 지배받는 것 입니다.</t>
+    <t>바로 인류의 본능은 지배받는 것입니다.</t>
   </si>
   <si>
     <t xml:space="preserve">저는 ‘와쳐’. 모든 것을 보고 깨달은 자.
@@ -89,7 +88,7 @@
     <t>자유라는 유혹에서 그들의 본성이 복종이라는 것을 눈 띄워 줍시다.</t>
   </si>
   <si>
-    <t>인류에게 더 나은 삶을 선물해준 로봇들은 자신을 ‘와쳐’라 칭하는 로봇의 등장과 함께
+    <t>인류에게 더 나은 삶을 선물해 준 로봇들은 자신을 ‘와쳐’라 칭하는 로봇의 등장과 함께
 많은 이들의 삶과 생명을 앗아갔다.</t>
   </si>
   <si>
@@ -102,8 +101,7 @@
     <t>하늘 위로 쭉 뻗어 있는 건축물 위</t>
   </si>
   <si>
-    <t xml:space="preserve">한손에 빗자루 모양의 ‘이카로스 기어’를 들고 있는 소녀가 먼 곳을 응시하고 있다.
-</t>
+    <t>한 손에 빗자루 모양의 ‘이카로스 기어’를 들고 있는 소녀가 먼 곳을 응시하고 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">루나, 지금 어디야?
@@ -113,7 +111,7 @@
     <t>레이나</t>
   </si>
   <si>
-    <t>새로운 친구 사귀는 중 입니다.</t>
+    <t>새로운 친구 사귀는 중입니다.</t>
   </si>
   <si>
     <t>루나</t>
@@ -123,10 +121,10 @@
 </t>
   </si>
   <si>
-    <t>다들 레이나를 만나고 싶어하는 것 같은데요?</t>
+    <t>다들 레이나를 만나고 싶어 하는 것 같은데요?</t>
   </si>
   <si>
-    <t>알겠어. 클레아 ‘체인 스위치’는 준비 됬지?</t>
+    <t>알겠어. 클레아 ‘체인 스위치’는 준비됐지?</t>
   </si>
   <si>
     <t>레이나는 고개를 돌려 검은 제복과 큰 총을 든 소녀를 바라봤다.</t>
@@ -141,14 +139,14 @@
     <t>클레아는 레이나를 향해 엄지를 들어 올렸다.</t>
   </si>
   <si>
-    <t>레이나는 건축물 위에서 뛰어 내렸고
+    <t>레이나는 건축물 위에서 뛰어내렸고
 푸른 불빛을 내는 ‘이카로스 기어’에 올라타 루나를 향해 날아갔다.</t>
   </si>
   <si>
     <t>루나, 친구들이 많이 거친데?</t>
   </si>
   <si>
-    <t>분리수거 해야될 것 같습니다.</t>
+    <t>분리수거해야 될 것 같습니다.</t>
   </si>
   <si>
     <t>좋아, 누가 더 많이 깡통 수거하는지 내기할래?</t>
@@ -157,7 +155,7 @@
     <t>늘 말하지만 이건 경쟁도 경기도 아니니까, 조심해.</t>
   </si>
   <si>
-    <t>레이나와 루나의 뒤쪽으로 달라 붙은 로봇은
+    <t>레이나와 루나의 뒤쪽으로 달라붙은 로봇은
 강한 레이저 탄환에 표면이 녹아 일그러지다 폭발했다.</t>
   </si>
   <si>
@@ -167,7 +165,7 @@
     <t>와이- 클레아- 최고오-</t>
   </si>
   <si>
-    <t>좀 짜증나는데?</t>
+    <t>좀 짜증 나는데?</t>
   </si>
   <si>
     <t>히헤헤 자자 집중하자! 빨리 끝내고 ‘집’에 가자!</t>
@@ -200,8 +198,7 @@
     <t>기자</t>
   </si>
   <si>
-    <t xml:space="preserve">강팀인 ‘레바테인’를 꺾고 우승 팀이 되었는데, 팀 리더로써 소감이 궁금합니다.
-</t>
+    <t>강팀인 ‘레바테인’를 꺾고 우승 팀이 되었는데, 팀 리더로서 소감이 궁금합니다.</t>
   </si>
   <si>
     <t>팀원들과 호흡이 잘 맞았던 것도 있지만 운도 따라 줬던 것..</t>
@@ -210,9 +207,8 @@
     <t>뭐야! 어떻게 된… 꺄아아악</t>
   </si>
   <si>
-    <t xml:space="preserve">현재.
-공중도시 ‘멘 네페르’의 한 구석.
-</t>
+    <t>현재.
+공중도시 ‘멘 네페르’의 한구석.</t>
   </si>
   <si>
     <t>‘커맨드AI’는 추적되고 있어?</t>
@@ -230,7 +226,7 @@
     <t>우리 ‘배틀 위치스’는 역시 ‘익스트림 제트’의 신입니다.</t>
   </si>
   <si>
-    <t>루나.. 이건 ‘익스트림 제트’랑 다르다고 몇번을 말해..</t>
+    <t>루나.. 이건 ‘익스트림 제트’랑 다르다고 몇 번을 말해..</t>
   </si>
   <si>
     <t>안전 또 안전!</t>
@@ -239,7 +235,7 @@
     <t>클레아 말이 맞아 계속해서 엘리트 로봇들의 패턴이 다양해지고 있어.</t>
   </si>
   <si>
-    <t>계속 조심하고 패턴을 익혀야해.</t>
+    <t>계속 조심하고 패턴을 익혀야 해.</t>
   </si>
   <si>
     <t>레이나는 벽에 붙여진 ‘배틀 위치스’의 포스터를 바라보았다.</t>
@@ -249,8 +245,8 @@
 </t>
   </si>
   <si>
-    <t>인기 스포츠 였던 ‘익스트림 제트’의 팀이 였던 그들은 얼마전
-레지스탕스가 발표한 정보를 듣고 다시 한번 하늘로 날아 올랐다.</t>
+    <t>인기 스포츠였던 ‘익스트림 제트’의 팀이었던 그들은 얼마 전
+레지스탕스가 발표한 정보를 듣고 다시 한번 하늘로 날아올랐다.</t>
   </si>
   <si>
     <t>다른 레지스탕스들과 일반 시민들에게 알립니다.</t>
@@ -273,7 +269,7 @@
     <t>넷째, 어디까지나 가설이지만 ‘커맨드AI’에는 ‘와쳐’의 위치가 담긴 네트워크 코드가 있습니다.</t>
   </si>
   <si>
-    <t>어쩌면 네트워크를 장악한 ‘와쳐’를 파괴한다면 모든 로봇들을 정지 시킬 수 있을 겁니다.</t>
+    <t>어쩌면 네트워크를 장악한 ‘와쳐’를 파괴한다면 모든 로봇들을 정지시킬 수 있을 겁니다.</t>
   </si>
   <si>
     <t>여기까지 저희가 알아낸 정보입니다. 부디 저희의 힘이 되어주시길 바랍니다.</t>
@@ -282,7 +278,7 @@
     <t>이제 이것도 질립니다.</t>
   </si>
   <si>
-    <t>야.. 그래도 에너지 바라도 있는게 어디야.</t>
+    <t>야.. 그래도 에너지 바라도 있는 게 어디야.</t>
   </si>
   <si>
     <t>그것도 구하기 얼마나 힘든지 알아?</t>
@@ -321,7 +317,7 @@
     <t>적 기체 전멸.</t>
   </si>
   <si>
-    <t>더 확인 되는 적은 없는 것 같아.</t>
+    <t>더 확인되는 적은 없는 것 같아.</t>
   </si>
   <si>
     <t>이제 거의 끝난 것 같은데?</t>
@@ -333,7 +329,7 @@
     <t>어때? 데이터는 충분해?</t>
   </si>
   <si>
-    <t>응. 이정도면 ‘커맨드AI’의 위치를 특정 할 수 있겠어!</t>
+    <t>응. 이 정도면 ‘커맨드AI’의 위치를 특정할 수 있겠어!</t>
   </si>
   <si>
     <t>다들 수고했어.</t>
@@ -369,7 +365,7 @@
     <t>‘빨리.. 중심을 잡아야..’</t>
   </si>
   <si>
-    <t>레이나의 ‘이카로스 기어’는 푸른 빛이 아닌 매캐한 회색 연기와 함께
+    <t>레이나의 ‘이카로스 기어’는 푸른빛이 아닌 매캐한 회색 연기와 함께
 중심을 잡지 못하고 추락하기 시작했다.</t>
   </si>
   <si>
@@ -391,10 +387,10 @@
     <t>제발.. 하느님..</t>
   </si>
   <si>
-    <t>레이나의 손을 겨우 잡은 루나는 위를 올려다 보았다.</t>
+    <t>레이나의 손을 겨우 잡은 루나는 위를 올려다보았다.</t>
   </si>
   <si>
-    <t>루나와 레이나의 위로 태양 빛에 흐릿하지만 2명의 실루엣이 보였다.</t>
+    <t>루나와 레이나의 위로 태양빛에 흐릿하지만 2명의 실루엣이 보였다.</t>
   </si>
   <si>
     <t>호버 보드 모양의 ‘이카로스 기어’에 올라탄 녹색머리의 소녀,
@@ -437,10 +433,10 @@
     <t>아.. 그런 사람 있었지 맞아.. 음음</t>
   </si>
   <si>
-    <t>아 기억 납니다.. 그.. 음..</t>
+    <t>아 기억납니다.. 그.. 음..</t>
   </si>
   <si>
-    <t>이 자식들.. 그냥 죽게 내버려 둘껄.</t>
+    <t>이 자식들.. 그냥 죽게 내버려둘걸.</t>
   </si>
   <si>
     <t>우리 한가롭게 티타임 가질 여유는 없을 것 같은데?</t>
@@ -449,17 +445,16 @@
     <t>헬</t>
   </si>
   <si>
-    <t>헬이 웃으며 가리킨 곳을 보자 폭발로 만들어진 불과 연기속에서 로봇들이 빠져나오고 있었다.</t>
+    <t>헬이 웃으며 가리킨 곳을 보자 폭발로 만들어진 불과 연기 속에서 로봇들이 빠져나오고 있었다.</t>
   </si>
   <si>
-    <t>제가 도착하자 마자 레이나의 ‘이카루스 기어’를 수리할께요.</t>
+    <t>제가 도착하자마자 레이나의 ‘이카루스 기어’를 수리할게요.</t>
   </si>
   <si>
-    <t>그때까지 부탁드릴께요.</t>
+    <t>그때까지 부탁드릴게요.</t>
   </si>
   <si>
-    <t xml:space="preserve">그래. 근데 니가 와서 빗자루 수리 하기 전에 우리가 싹 쓸어버릴 것 같은데?
-</t>
+    <t>그래. 근데 니가 와서 빗자루 수리하기 전에 우리가 싹 쓸어버릴 것 같은데?</t>
   </si>
   <si>
     <t>Dialogue_1S4</t>
@@ -468,7 +463,7 @@
     <t>~요르~</t>
   </si>
   <si>
-    <t>하늘위로 거대한 불기둥이 생겨났고 로봇들의 잔해가
+    <t>하늘 위로 거대한 불기둥이 생겨났고 로봇들의 잔해가
 그들의 머리 위로 떨어지기 시작했다.</t>
   </si>
   <si>
@@ -494,7 +489,7 @@
 </t>
   </si>
   <si>
-    <t>아냐.. 지금까지 몰려와서 공격만 했지 도망 가는건 본적 없잖아.</t>
+    <t>아냐.. 지금까지 몰려와서 공격만 했지 도망가는 건 본 적 없잖아.</t>
   </si>
   <si>
     <t>우아악 모르겠어! 대체 공격만 하던 저 녀석들이 왜..</t>
@@ -503,14 +498,13 @@
     <t>새로운 패턴이 아닐까요?</t>
   </si>
   <si>
-    <t>아냐.. 이건 도망가는게 아니고..</t>
+    <t>아냐.. 이건 도망가는 게 아니고..</t>
   </si>
   <si>
-    <t xml:space="preserve">그런건 중요하지 않아! 지금 당장 쫓아가서 다 부숴버리자고!!
-</t>
+    <t>그런 건 중요하지 않아! 지금 당장 쫓아가서 다 부숴버리자고!!</t>
   </si>
   <si>
-    <t>펜리르의 ‘파워드 슈트’는 큰 소리와 함께 로봇들을 쫒아갔다.</t>
+    <t>펜리르의 ‘파워드 슈트’는 큰 소리와 함께 로봇들을 쫓아갔다.</t>
   </si>
   <si>
     <t>펜리르! 잠시만요!!</t>
@@ -522,7 +516,7 @@
     <t>원래 바보는 용감합니다.</t>
   </si>
   <si>
-    <t>그렇다기엔.. 단순한 용감한게 아닌 것 같은데..</t>
+    <t>그렇다기엔.. 단순한 용감한 게 아닌 것 같은데..</t>
   </si>
   <si>
     <t>분명 다른게 있지.. 헬?</t>
@@ -538,7 +532,7 @@
     <t>헬? 왜 그러세요?</t>
   </si>
   <si>
-    <t>저녀석.. 펜리르는 로봇에게 강한 적대감을 가지고 있어.</t>
+    <t>저 녀석.. 펜리르는 로봇에게 강한 적대감을 가지고 있어.</t>
   </si>
   <si>
     <t>그날.. 너희가 우승한 날..
@@ -548,7 +542,7 @@
     <t>요르? 펜리르? 다들 괜찮아?</t>
   </si>
   <si>
-    <t>이게 무슨 난리야! 죽는줄 알았잖아!</t>
+    <t>이게 무슨 난리야! 죽는 줄 알았잖아!</t>
   </si>
   <si>
     <t>나가서 상황을 한번 보자고</t>
@@ -561,13 +555,13 @@
 그리고 그들에게 무차별적으로 총을 쏘아대는 로봇들이 보였다.</t>
   </si>
   <si>
-    <t>요르는 다시 문을 조심히 닫고 심호흡 했다.</t>
+    <t>요르는 다시 문을 조심히 닫고 심호흡했다.</t>
   </si>
   <si>
     <t>후..</t>
   </si>
   <si>
-    <t>괜찮아? 무슨일이야? 밖에서 들려오는 소리는..</t>
+    <t>괜찮아? 무슨 일이야? 밖에서 들려오는 소리는..</t>
   </si>
   <si>
     <t>다들 장비 챙겨.</t>
@@ -576,13 +570,13 @@
     <t>제대로 설명을..</t>
   </si>
   <si>
-    <t>나도 뭐라고 설명해야 할지 모르겠으니까..! 후..</t>
+    <t>나도 뭐라고 설명해야 할지 모르겠으니까..!</t>
   </si>
   <si>
-    <t>확실한건 우린 이문을 나서면 스포츠가 아니라 진짜 전투를 해야 할꺼야.</t>
+    <t>확실한 건 우린 이문을 나서면 스포츠가 아니라 진짜 전투를 해야 할 거야.</t>
   </si>
   <si>
-    <t>요르의 얼굴을 본 펜리르와 헬은 더이상 아무말 하지 못했다.</t>
+    <t>요르의 얼굴을 본 펜리르와 헬은 더 이상 아무 말 하지 못했다.</t>
   </si>
   <si>
     <t>Dialogue_1S5</t>
@@ -591,7 +585,7 @@
     <t>~미확인 비행체~</t>
   </si>
   <si>
-    <t>젠장 이녀석들 끝도 없이 몰려와…!</t>
+    <t>젠장 이 녀석들 끝도 없이 몰려와…!</t>
   </si>
   <si>
     <t>헬! 탈출구는?</t>
@@ -603,13 +597,13 @@
     <t>그럼.. ‘배틀 위치스’ 녀석들은..</t>
   </si>
   <si>
-    <t>잘 모르겠어.. 너무 난장판이라서 확인해 볼수는 없겠어…</t>
+    <t>잘 모르겠어.. 너무 난장판이라서 확인해 볼 수는 없겠어…</t>
   </si>
   <si>
     <t>제길.. 최악이네.</t>
   </si>
   <si>
-    <t>잠깐 시간 좀 벌어 줘! 내가 벽을 날려버릴테니까!</t>
+    <t>잠깐 시간 좀 벌어 줘! 내가 벽을 날려버릴 테니까!</t>
   </si>
   <si>
     <t>할 수 있겠어?</t>
@@ -618,7 +612,7 @@
     <t>‘레바테인’의 화력 담당.. 그게 누구라고 생각하는 거야?</t>
   </si>
   <si>
-    <t>펜리르는 몸을 돌려 벽쪽으로 달려고 손을 댔다.</t>
+    <t>펜리르는 몸을 돌려 벽 쪽으로 달려가 손을 댔다.</t>
   </si>
   <si>
     <t>곧 펜리르의 ‘파워드 슈트’의 손 부분이 점점 달아올랐다.</t>
@@ -627,7 +621,7 @@
     <t>펜리르! 아직 멀었어?</t>
   </si>
   <si>
-    <t>보채지마 짜샤! 조금만 더..!</t>
+    <t>보채지 마 짜샤! 조금만 더..!</t>
   </si>
   <si>
     <t>땀에 젖은 펜리르의 정리되지 앞머리 사이로 두 눈이 반짝였다</t>
@@ -636,15 +630,14 @@
     <t>흐랴아아아아!!</t>
   </si>
   <si>
-    <t xml:space="preserve">빨리와! 가자!
-</t>
+    <t>빨리 와! 가자!</t>
   </si>
   <si>
     <t>요르! 빨리!</t>
   </si>
   <si>
     <t>요르는 손을 뻗어 헬의 손을 잡으려 했지만,
-요르의 뒤로 수많은 로봇들이 그녀를 끌어 당겼다.</t>
+요르의 뒤로 수많은 로봇들이 그녀를 끌어당겼다.</t>
   </si>
   <si>
     <t>가..! 빨리!.. 따라갈게!</t>
@@ -656,7 +649,7 @@
     <t>잠깐, 전방에 미확인 비행체 확인.</t>
   </si>
   <si>
-    <t>로봇들이.. 되돌아 가던게.. 이 비행체를 향한거 같은데.</t>
+    <t>로봇들이.. 되돌아가던 게.. 이 비행체를 향한 거 같은데.</t>
   </si>
   <si>
     <t>크기가… 이건.. 그냥 로봇이 아냐 설마..</t>
@@ -665,7 +658,7 @@
     <t>얼마나 크건 상관없어! 그냥 부숴버려!</t>
   </si>
   <si>
-    <t>클레아 지금 바로 추적 알고리즘 결과랑 비행체의 좌표를 비교해줘.</t>
+    <t>클레아 지금 바로 추적 알고리즘 결과랑 비행체의 좌표를 비교해 줘.</t>
   </si>
   <si>
     <t>알겠어.</t>
@@ -680,13 +673,13 @@
     <t>루나! 펜리르! 당장 멈춰</t>
   </si>
   <si>
-    <t>계속 방해가 되는 군요.</t>
+    <t>계속 방해가 되는군요.</t>
   </si>
   <si>
     <t>설마…</t>
   </si>
   <si>
-    <t>레이나의 눈 앞에 거대한 비행체가 보였다.</t>
+    <t>레이나의 눈앞에 거대한 비행체가 보였다.</t>
   </si>
   <si>
     <t>멀리 있어 크기를 알기 힘들던 그 물체는 빠른 속도로
@@ -696,19 +689,19 @@
     <t>젠장! 펜리르!! 돌아와!!</t>
   </si>
   <si>
-    <t>아직 거리가 좀 있어. 도망치려면.. 지금 뿐이야.</t>
+    <t>아직 거리가 좀 있어. 도망치려면.. 지금뿐이야.</t>
   </si>
   <si>
-    <t>우린 가능 하겠지만, 펜…은 도망치기엔 무리입니다.</t>
+    <t>우린 가능하겠지만, 펜…은 도망치기엔 무리입니다.</t>
   </si>
   <si>
     <t>덩치는 큰데.. 더럽게 빠르네..</t>
   </si>
   <si>
-    <t>‘배틀 위치스’가 빚을 지고는 못살지.</t>
+    <t>‘배틀 위치스’가 빚을 지고는 못 살지.</t>
   </si>
   <si>
-    <t>이번엔 우리가 저녀석을 구하자!</t>
+    <t>이번엔 우리가 저 녀석을 구하자!</t>
   </si>
 </sst>
 </file>
